--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Win-c3ugrfpd6ao\c\Users\Administrator\Documents\GitHub\lmes\Resources\ResourcesRoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\lmes\Resources\ResourcesRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,94 +51,98 @@
     <t>产品名称</t>
   </si>
   <si>
+    <t>系统看板大小</t>
+  </si>
+  <si>
+    <t>最大看板张数</t>
+  </si>
+  <si>
+    <t>最小看板张数</t>
+  </si>
+  <si>
+    <t>目标OEE</t>
+  </si>
+  <si>
+    <t>最小完成率</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>质量损失OEE</t>
+  </si>
+  <si>
+    <t>换型损失OEE</t>
+  </si>
+  <si>
+    <t>技术损失OEE</t>
+  </si>
+  <si>
+    <t>性能损失OEE</t>
+  </si>
+  <si>
+    <t>内部缺陷PPM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>线外测试数量B（1-10）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>线外测试数量A（1-10）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季度不良率目标(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二季度不良率目标(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四季度不良率目标(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三季度不良率目标(ppm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换电极后测试数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产线名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>产品名称2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>产品名称3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>产品名称4</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>系统看板大小</t>
-  </si>
-  <si>
-    <t>最大看板张数</t>
-  </si>
-  <si>
-    <t>最小看板张数</t>
-  </si>
-  <si>
-    <t>目标OEE</t>
-  </si>
-  <si>
-    <t>最小完成率</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>质量损失OEE</t>
-  </si>
-  <si>
-    <t>换型损失OEE</t>
-  </si>
-  <si>
-    <t>技术损失OEE</t>
-  </si>
-  <si>
-    <t>性能损失OEE</t>
-  </si>
-  <si>
-    <t>内部缺陷PPM</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>线外测试数量B（1-10）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>线外测试数量A（1-10）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一季度不良率目标(ppm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二季度不良率目标(ppm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三季度不良率目标(ppm）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四季度不良率目标(ppm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -492,36 +496,36 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD27" sqref="AD25:AD27"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="18.75" customWidth="1"/>
-    <col min="17" max="17" width="16.75" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="13.5" customWidth="1"/>
-    <col min="20" max="20" width="15.75" customWidth="1"/>
-    <col min="21" max="22" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="15.25" customWidth="1"/>
-    <col min="27" max="27" width="13.875" customWidth="1"/>
-    <col min="28" max="28" width="14.75" customWidth="1"/>
-    <col min="29" max="29" width="13.875" customWidth="1"/>
-    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="5" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="11" width="19.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="18" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="14.75" customWidth="1"/>
+    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="14.125" customWidth="1"/>
+    <col min="27" max="27" width="18.5" customWidth="1"/>
+    <col min="28" max="31" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="25.5" customHeight="1">
+    <row r="1" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,7 +561,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -571,25 +575,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -606,29 +610,29 @@
       <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="Y2" t="s">
         <v>19</v>
@@ -636,93 +640,93 @@
       <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>24</v>
+      <c r="AA2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/ResourcesRoot/产品信息.xlsx
+++ b/Resources/ResourcesRoot/产品信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\lmes\Resources\ResourcesRoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Win-c3ugrfpd6ao\c\Users\Administrator\Documents\GitHub\lmes\Resources\ResourcesRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>备注1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>产品名称2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -132,17 +128,21 @@
   </si>
   <si>
     <t>产品名称4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要100%检验</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -496,10 +496,10 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomLeft" activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="44.5" customWidth="1"/>
     <col min="2" max="4" width="19.5" customWidth="1"/>
@@ -523,9 +523,10 @@
     <col min="26" max="26" width="14.125" customWidth="1"/>
     <col min="27" max="27" width="18.5" customWidth="1"/>
     <col min="28" max="31" width="19.5" customWidth="1"/>
+    <col min="32" max="32" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="25.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +562,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -647,19 +648,19 @@
         <v>9</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32">
       <c r="AA3" t="s">
         <v>21</v>
       </c>
@@ -673,7 +674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32">
       <c r="AA4" t="s">
         <v>21</v>
       </c>
@@ -687,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32">
       <c r="AA5" t="s">
         <v>21</v>
       </c>
@@ -701,7 +702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32">
       <c r="AA6" t="s">
         <v>21</v>
       </c>
@@ -715,7 +716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32">
       <c r="AA7" t="s">
         <v>21</v>
       </c>
